--- a/Actividad_2.xlsx
+++ b/Actividad_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,8 +480,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[ 5 40 60  7 35]</t>
+          <t>[30 35 40 35 27]</t>
         </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Actividad_2.xlsx
+++ b/Actividad_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[30 35 40 35 27]</t>
+          <t>[ 6 25 18  4 10]</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,234 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[[ 0.107 -0.001 -0.009 -0.017]
+ [-0.001  0.093 -0.013 -0.019]
+ [-0.009 -0.013  0.083 -0.021]
+ [-0.017 -0.019 -0.021  0.077]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Max: 0.995606216311657, IndMax: 8, Min: 0.005053725483609051, IndMin: 83</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Array 3x1:
+[[0]
+ [1]
+ [2]]
+Array 1x3:
+[[0 1 2]]
+Suma (3x3):
+[[0 1 2]
+ [1 2 3]
+ [2 3 4]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Matriz 5x5:
+[[8 2 2 8 4]
+ [5 3 8 7 5]
+ [9 4 5 4 4]
+ [8 1 7 2 2]
+ [9 9 3 1 7]]
+Submatriz 2x2:
+[[3 8]
+ [4 5]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 5. 5. 5. 5. 0. 0. 0.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Matriz original:
+[[2, 2, 5], [6, 3, 8], [2, 4, 8]]
+Matriz invertida:
+[[2, 4, 8], [6, 3, 8], [2, 2, 5]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Array:
+[0.59571965 0.39768751 0.81367452 0.0510414  0.99819178 0.36241778
+ 0.15516835 0.43966161 0.71325841 0.90719083]
+Mayores a 0.5:
+[0.59571965 0.81367452 0.99819178 0.71325841 0.90719083]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Gráfico de dispersión</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Gráfico de dispersión con ruido</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Gráfico de contorno</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Gráfico de dispersión con densidad de puntos</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Gráfico de contorno lleno</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Actividad_2.xlsx
+++ b/Actividad_2.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[ 6 25 18  4 10]</t>
+          <t>[20 45  4 15  5]</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Max: 0.995606216311657, IndMax: 8, Min: 0.005053725483609051, IndMin: 83</t>
+          <t>Max: 0.997225001160941, IndMax: 19, Min: 0.0023612421502319236, IndMin: 27</t>
         </is>
       </c>
     </row>
@@ -545,14 +545,14 @@
       <c r="C8" t="inlineStr">
         <is>
           <t>Matriz 5x5:
-[[8 2 2 8 4]
- [5 3 8 7 5]
- [9 4 5 4 4]
- [8 1 7 2 2]
- [9 9 3 1 7]]
+[[3 4 3 2 8]
+ [2 7 3 7 7]
+ [5 2 5 9 3]
+ [6 6 7 1 2]
+ [8 9 7 6 7]]
 Submatriz 2x2:
-[[3 8]
- [4 5]]</t>
+[[7 3]
+ [2 5]]</t>
         </is>
       </c>
     </row>
@@ -579,9 +579,9 @@
       <c r="C10" t="inlineStr">
         <is>
           <t>Matriz original:
-[[2, 2, 5], [6, 3, 8], [2, 4, 8]]
+[[4, 3, 6], [2, 4, 8], [6, 2, 5]]
 Matriz invertida:
-[[2, 4, 8], [6, 3, 8], [2, 2, 5]]</t>
+[[6, 2, 5], [2, 4, 8], [4, 3, 6]]</t>
         </is>
       </c>
     </row>
@@ -595,10 +595,10 @@
       <c r="C11" t="inlineStr">
         <is>
           <t>Array:
-[0.59571965 0.39768751 0.81367452 0.0510414  0.99819178 0.36241778
- 0.15516835 0.43966161 0.71325841 0.90719083]
+[0.65715824 0.31315038 0.50750603 0.35066385 0.11187459 0.53552948
+ 0.34300771 0.14137316 0.10424942 0.56955588]
 Mayores a 0.5:
-[0.59571965 0.81367452 0.99819178 0.71325841 0.90719083]</t>
+[0.65715824 0.50750603 0.53552948 0.56955588]</t>
         </is>
       </c>
     </row>
@@ -674,8 +674,10 @@
       <c r="B17" t="n">
         <v>16</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Gráfico de dispersión con etiquetas</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -685,8 +687,10 @@
       <c r="B18" t="n">
         <v>17</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Histograma</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -696,8 +700,10 @@
       <c r="B19" t="n">
         <v>18</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Histograma con dos distribuciones</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -707,8 +713,10 @@
       <c r="B20" t="n">
         <v>19</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Histograma con diferentes bins</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -718,8 +726,10 @@
       <c r="B21" t="n">
         <v>20</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Histograma con media</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Actividad_2.xlsx
+++ b/Actividad_2.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[20 45  4 15  5]</t>
+          <t>[ 8  9  9  5 40]</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Max: 0.997225001160941, IndMax: 19, Min: 0.0023612421502319236, IndMin: 27</t>
+          <t>Max: 0.9966638242720999, IndMax: 78, Min: 0.02825550964710899, IndMin: 0</t>
         </is>
       </c>
     </row>
@@ -545,14 +545,14 @@
       <c r="C8" t="inlineStr">
         <is>
           <t>Matriz 5x5:
-[[3 4 3 2 8]
- [2 7 3 7 7]
- [5 2 5 9 3]
- [6 6 7 1 2]
- [8 9 7 6 7]]
+[[5 5 3 8 4]
+ [1 5 6 8 4]
+ [9 3 6 2 9]
+ [6 9 1 2 6]
+ [9 6 8 9 3]]
 Submatriz 2x2:
-[[7 3]
- [2 5]]</t>
+[[5 6]
+ [3 6]]</t>
         </is>
       </c>
     </row>
@@ -579,9 +579,9 @@
       <c r="C10" t="inlineStr">
         <is>
           <t>Matriz original:
-[[4, 3, 6], [2, 4, 8], [6, 2, 5]]
+[[6, 3, 1], [7, 1, 4], [6, 3, 3]]
 Matriz invertida:
-[[6, 2, 5], [2, 4, 8], [4, 3, 6]]</t>
+[[6, 3, 3], [7, 1, 4], [6, 3, 1]]</t>
         </is>
       </c>
     </row>
@@ -595,10 +595,10 @@
       <c r="C11" t="inlineStr">
         <is>
           <t>Array:
-[0.65715824 0.31315038 0.50750603 0.35066385 0.11187459 0.53552948
- 0.34300771 0.14137316 0.10424942 0.56955588]
+[0.12948807 0.57145982 0.7106041  0.02627506 0.32433248 0.51830064
+ 0.47058379 0.31383812 0.64927979 0.25221508]
 Mayores a 0.5:
-[0.65715824 0.50750603 0.53552948 0.56955588]</t>
+[0.57145982 0.7106041  0.51830064 0.64927979]</t>
         </is>
       </c>
     </row>
